--- a/Task3/Datas.xlsx
+++ b/Task3/Datas.xlsx
@@ -1094,12 +1094,12 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.85714285714286" customWidth="1"/>
+    <col min="1" max="1" width="11.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="31.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="30.4285714285714" customWidth="1"/>
     <col min="4" max="4" width="24.4285714285714" customWidth="1"/>
